--- a/conf-core/src/main/webapp/resources/import-templates/ccdb_device_types.xlsx
+++ b/conf-core/src/main/webapp/resources/import-templates/ccdb_device_types.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -52,24 +52,15 @@
     <t>European Spallation Source (ESS)</t>
   </si>
   <si>
-    <t>2015/MAY/06</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
-    <t>Template file to import device types in the CCDB</t>
-  </si>
-  <si>
     <t>TYPE</t>
   </si>
   <si>
@@ -86,13 +77,28 @@
   </si>
   <si>
     <t>Total property names</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>2016/JAN/14</t>
+  </si>
+  <si>
+    <t>https://ccdb.esss.lu.se/resources/help/ccdb_conventions.pdf</t>
+  </si>
+  <si>
+    <t>Template file to import/export device types to/from the CCDB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +110,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -210,10 +224,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -223,6 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -239,7 +255,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -539,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -554,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1">
-        <f xml:space="preserve"> SUMPRODUCT((B10:B65536 &lt;&gt; "") / COUNTIF(B10:B65536, B10:B65536 &amp; ""))</f>
+        <f xml:space="preserve"> SUMPRODUCT((B11:B65536 &lt;&gt; "") / COUNTIF(B11:B65536, B11:B65536 &amp; ""))</f>
         <v>0</v>
       </c>
     </row>
@@ -569,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <f xml:space="preserve"> SUMPRODUCT((E10:E65536 &lt;&gt; "") / COUNTIF(E10:E65536, E10:E65536 &amp; ""))</f>
+        <f xml:space="preserve"> SUMPRODUCT((E11:E65536 &lt;&gt; "") / COUNTIF(E11:E65536, E11:E65536 &amp; ""))</f>
         <v>0</v>
       </c>
     </row>
@@ -584,13 +601,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3">
-        <f xml:space="preserve"> COUNTIF(A10:A65536, "CREATE DEVICE TYPE") + COUNTIF(A10:A65536, "CREATE PROPERTY")</f>
+        <f xml:space="preserve"> COUNTIF(A11:A65536, "CREATE DEVICE TYPE") + COUNTIF(A11:A65536, "CREATE PROPERTY")</f>
         <v>0</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <f xml:space="preserve"> COUNTIF(A10:A65536, "UPDATE DEVICE TYPE") + COUNTIF(A10:A65536, "UPDATE PROPERTY")</f>
+        <f xml:space="preserve"> COUNTIF(A11:A65536, "UPDATE DEVICE TYPE") + COUNTIF(A11:A65536, "UPDATE PROPERTY")</f>
         <v>0</v>
       </c>
     </row>
@@ -620,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <f xml:space="preserve"> COUNTIF(A10:A65536, "DELETE DEVICE TYPE") + COUNTIF(A10:A65536, "DELETE PROPERTY")</f>
+        <f xml:space="preserve"> COUNTIF(A11:A65536, "DELETE DEVICE TYPE") + COUNTIF(A11:A65536, "DELETE PROPERTY")</f>
         <v>0</v>
       </c>
     </row>
@@ -629,45 +646,50 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -679,6 +701,7 @@
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -686,29 +709,31 @@
     <row r="15" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+    </row>
     <row r="17" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="E9:F9 C9 D9 B8:B9 A8:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D1048576">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="C10:F10 A9:B10 D9:F9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D1048576">
       <formula1>"DEVICE TYPE,DEVICE INSTANCE,SLOT"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="D8:F8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A1048576">
       <formula1>"CREATE DEVICE TYPE,UPDATE DEVICE TYPE,DELETE DEVICE TYPE,CREATE PROPERTY,UPDATE PROPERTY,DELETE PROPERTY"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>